--- a/data_year/zb/对外经济贸易/按国别(地区)分对外经济合作/对外劳务合作年末在外人员/中国对非洲各国(地区)劳务合作年末在外人员.xlsx
+++ b/data_year/zb/对外经济贸易/按国别(地区)分对外经济合作/对外劳务合作年末在外人员/中国对非洲各国(地区)劳务合作年末在外人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,6 +2379,173 @@
         <v>38</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>494</v>
+      </c>
+      <c r="D12" t="n">
+        <v>215</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>19</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>1768</v>
+      </c>
+      <c r="I12" t="n">
+        <v>277</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3280</v>
+      </c>
+      <c r="K12" t="n">
+        <v>17</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1676</v>
+      </c>
+      <c r="M12" t="n">
+        <v>613</v>
+      </c>
+      <c r="N12" t="n">
+        <v>75</v>
+      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>253</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7</v>
+      </c>
+      <c r="U12" t="n">
+        <v>29</v>
+      </c>
+      <c r="V12" t="n">
+        <v>154</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>475</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>608</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>688</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>599</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>96</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>102</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1015</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>2644</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>97</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="n">
+        <v>199</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>260</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AU12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>826</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>82</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>612</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>181</v>
+      </c>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="n">
+        <v>77</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>481</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>130</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>2268</v>
+      </c>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="n">
+        <v>21000</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>44</v>
+      </c>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="n">
+        <v>115</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
